--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_154.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_154.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32123-d256794-Reviews-Courtyard_Los_Angeles_Burbank_Airport-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>406</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Courtyard-By-Marriott-Los-Angeles-Burbank-Airport.h894432.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_154.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_154.xlsx
@@ -4426,7 +4426,7 @@
     <t>Very friendly staff -- every maid says hello and have a nice day in the hallway.Clean rooms, spacious, free Internet.  Good food in the restaurant.  Outdoor area is nice as well.  Right next to a big shopping center.  Location is a bit tricky but once you figure out how to get there its easy.  Bravo!</t>
   </si>
   <si>
-    <t>MartinJLD</t>
+    <t>Martin J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d256794-r132696868-Courtyard_Los_Angeles_Burbank_Airport-Burbank_California.html</t>
@@ -6444,7 +6444,7 @@
         <v>44816</v>
       </c>
       <c r="B3" t="n">
-        <v>132651</v>
+        <v>163452</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -6578,7 +6578,7 @@
         <v>44816</v>
       </c>
       <c r="B5" t="n">
-        <v>132652</v>
+        <v>163453</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -6649,7 +6649,7 @@
         <v>44816</v>
       </c>
       <c r="B6" t="n">
-        <v>132653</v>
+        <v>163454</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -6710,7 +6710,7 @@
         <v>44816</v>
       </c>
       <c r="B7" t="n">
-        <v>132654</v>
+        <v>163455</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
@@ -6836,7 +6836,7 @@
         <v>44816</v>
       </c>
       <c r="B9" t="n">
-        <v>132655</v>
+        <v>163456</v>
       </c>
       <c r="C9" t="s">
         <v>115</v>
@@ -7035,7 +7035,7 @@
         <v>44816</v>
       </c>
       <c r="B12" t="n">
-        <v>132656</v>
+        <v>163457</v>
       </c>
       <c r="C12" t="s">
         <v>144</v>
@@ -7169,7 +7169,7 @@
         <v>44816</v>
       </c>
       <c r="B14" t="n">
-        <v>132657</v>
+        <v>163458</v>
       </c>
       <c r="C14" t="s">
         <v>162</v>
@@ -7238,7 +7238,7 @@
         <v>44816</v>
       </c>
       <c r="B15" t="n">
-        <v>132658</v>
+        <v>163459</v>
       </c>
       <c r="C15" t="s">
         <v>172</v>
@@ -7368,7 +7368,7 @@
         <v>44816</v>
       </c>
       <c r="B17" t="n">
-        <v>132659</v>
+        <v>163460</v>
       </c>
       <c r="C17" t="s">
         <v>190</v>
@@ -7433,7 +7433,7 @@
         <v>44816</v>
       </c>
       <c r="B18" t="n">
-        <v>132660</v>
+        <v>163461</v>
       </c>
       <c r="C18" t="s">
         <v>200</v>
@@ -7498,7 +7498,7 @@
         <v>44816</v>
       </c>
       <c r="B19" t="n">
-        <v>132661</v>
+        <v>163462</v>
       </c>
       <c r="C19" t="s">
         <v>207</v>
@@ -7628,7 +7628,7 @@
         <v>44816</v>
       </c>
       <c r="B21" t="n">
-        <v>132662</v>
+        <v>163463</v>
       </c>
       <c r="C21" t="s">
         <v>225</v>
@@ -7758,7 +7758,7 @@
         <v>44816</v>
       </c>
       <c r="B23" t="n">
-        <v>132663</v>
+        <v>163464</v>
       </c>
       <c r="C23" t="s">
         <v>244</v>
@@ -7823,7 +7823,7 @@
         <v>44816</v>
       </c>
       <c r="B24" t="n">
-        <v>132664</v>
+        <v>163465</v>
       </c>
       <c r="C24" t="s">
         <v>254</v>
@@ -7888,7 +7888,7 @@
         <v>44816</v>
       </c>
       <c r="B25" t="n">
-        <v>132665</v>
+        <v>163466</v>
       </c>
       <c r="C25" t="s">
         <v>263</v>
@@ -7949,7 +7949,7 @@
         <v>44816</v>
       </c>
       <c r="B26" t="n">
-        <v>132666</v>
+        <v>163467</v>
       </c>
       <c r="C26" t="s">
         <v>270</v>
@@ -8014,7 +8014,7 @@
         <v>44816</v>
       </c>
       <c r="B27" t="n">
-        <v>132667</v>
+        <v>132669</v>
       </c>
       <c r="C27" t="s">
         <v>280</v>
@@ -8085,7 +8085,7 @@
         <v>44816</v>
       </c>
       <c r="B28" t="n">
-        <v>132668</v>
+        <v>163468</v>
       </c>
       <c r="C28" t="s">
         <v>286</v>
@@ -8156,7 +8156,7 @@
         <v>44816</v>
       </c>
       <c r="B29" t="n">
-        <v>132669</v>
+        <v>163469</v>
       </c>
       <c r="C29" t="s">
         <v>296</v>
@@ -8227,7 +8227,7 @@
         <v>44816</v>
       </c>
       <c r="B30" t="n">
-        <v>132670</v>
+        <v>163470</v>
       </c>
       <c r="C30" t="s">
         <v>305</v>
@@ -8298,7 +8298,7 @@
         <v>44816</v>
       </c>
       <c r="B31" t="n">
-        <v>132671</v>
+        <v>163471</v>
       </c>
       <c r="C31" t="s">
         <v>315</v>
@@ -8363,7 +8363,7 @@
         <v>44816</v>
       </c>
       <c r="B32" t="n">
-        <v>132672</v>
+        <v>163472</v>
       </c>
       <c r="C32" t="s">
         <v>325</v>
@@ -8428,7 +8428,7 @@
         <v>44816</v>
       </c>
       <c r="B33" t="n">
-        <v>132673</v>
+        <v>163473</v>
       </c>
       <c r="C33" t="s">
         <v>336</v>
@@ -8684,7 +8684,7 @@
         <v>44816</v>
       </c>
       <c r="B37" t="n">
-        <v>132674</v>
+        <v>163474</v>
       </c>
       <c r="C37" t="s">
         <v>369</v>
@@ -8753,7 +8753,7 @@
         <v>44816</v>
       </c>
       <c r="B38" t="n">
-        <v>132675</v>
+        <v>163475</v>
       </c>
       <c r="C38" t="s">
         <v>379</v>
@@ -8883,7 +8883,7 @@
         <v>44816</v>
       </c>
       <c r="B40" t="n">
-        <v>132676</v>
+        <v>163476</v>
       </c>
       <c r="C40" t="s">
         <v>396</v>
@@ -8952,7 +8952,7 @@
         <v>44816</v>
       </c>
       <c r="B41" t="n">
-        <v>132677</v>
+        <v>163477</v>
       </c>
       <c r="C41" t="s">
         <v>405</v>
@@ -9023,7 +9023,7 @@
         <v>44816</v>
       </c>
       <c r="B42" t="n">
-        <v>132678</v>
+        <v>163478</v>
       </c>
       <c r="C42" t="s">
         <v>415</v>
@@ -9088,7 +9088,7 @@
         <v>44816</v>
       </c>
       <c r="B43" t="n">
-        <v>132679</v>
+        <v>163479</v>
       </c>
       <c r="C43" t="s">
         <v>422</v>
@@ -9153,7 +9153,7 @@
         <v>44816</v>
       </c>
       <c r="B44" t="n">
-        <v>132680</v>
+        <v>163480</v>
       </c>
       <c r="C44" t="s">
         <v>429</v>
@@ -9289,7 +9289,7 @@
         <v>44816</v>
       </c>
       <c r="B46" t="n">
-        <v>132681</v>
+        <v>163481</v>
       </c>
       <c r="C46" t="s">
         <v>447</v>
@@ -9423,7 +9423,7 @@
         <v>44816</v>
       </c>
       <c r="B48" t="n">
-        <v>132682</v>
+        <v>163482</v>
       </c>
       <c r="C48" t="s">
         <v>466</v>
@@ -9488,7 +9488,7 @@
         <v>44816</v>
       </c>
       <c r="B49" t="n">
-        <v>132683</v>
+        <v>163483</v>
       </c>
       <c r="C49" t="s">
         <v>473</v>
@@ -9559,7 +9559,7 @@
         <v>44816</v>
       </c>
       <c r="B50" t="n">
-        <v>132684</v>
+        <v>163484</v>
       </c>
       <c r="C50" t="s">
         <v>479</v>
@@ -9630,7 +9630,7 @@
         <v>44816</v>
       </c>
       <c r="B51" t="n">
-        <v>132685</v>
+        <v>163485</v>
       </c>
       <c r="C51" t="s">
         <v>488</v>
@@ -9770,7 +9770,7 @@
         <v>44816</v>
       </c>
       <c r="B53" t="n">
-        <v>132686</v>
+        <v>163486</v>
       </c>
       <c r="C53" t="s">
         <v>507</v>
@@ -9841,7 +9841,7 @@
         <v>44816</v>
       </c>
       <c r="B54" t="n">
-        <v>132687</v>
+        <v>163487</v>
       </c>
       <c r="C54" t="s">
         <v>517</v>
@@ -9910,7 +9910,7 @@
         <v>44816</v>
       </c>
       <c r="B55" t="n">
-        <v>132688</v>
+        <v>163488</v>
       </c>
       <c r="C55" t="s">
         <v>526</v>
@@ -10190,7 +10190,7 @@
         <v>44816</v>
       </c>
       <c r="B59" t="n">
-        <v>132689</v>
+        <v>163489</v>
       </c>
       <c r="C59" t="s">
         <v>559</v>
@@ -10261,7 +10261,7 @@
         <v>44816</v>
       </c>
       <c r="B60" t="n">
-        <v>132666</v>
+        <v>132669</v>
       </c>
       <c r="C60" t="s">
         <v>280</v>
@@ -10401,7 +10401,7 @@
         <v>44816</v>
       </c>
       <c r="B62" t="n">
-        <v>132690</v>
+        <v>163490</v>
       </c>
       <c r="C62" t="s">
         <v>587</v>
@@ -10472,7 +10472,7 @@
         <v>44816</v>
       </c>
       <c r="B63" t="n">
-        <v>132691</v>
+        <v>163491</v>
       </c>
       <c r="C63" t="s">
         <v>597</v>
@@ -10541,7 +10541,7 @@
         <v>44816</v>
       </c>
       <c r="B64" t="n">
-        <v>132692</v>
+        <v>163492</v>
       </c>
       <c r="C64" t="s">
         <v>607</v>
@@ -10683,7 +10683,7 @@
         <v>44816</v>
       </c>
       <c r="B66" t="n">
-        <v>132693</v>
+        <v>163493</v>
       </c>
       <c r="C66" t="s">
         <v>623</v>
@@ -10752,7 +10752,7 @@
         <v>44816</v>
       </c>
       <c r="B67" t="n">
-        <v>132694</v>
+        <v>163494</v>
       </c>
       <c r="C67" t="s">
         <v>630</v>
@@ -10809,7 +10809,7 @@
         <v>44816</v>
       </c>
       <c r="B68" t="n">
-        <v>132695</v>
+        <v>163495</v>
       </c>
       <c r="C68" t="s">
         <v>637</v>
@@ -10876,7 +10876,7 @@
         <v>44816</v>
       </c>
       <c r="B69" t="n">
-        <v>132696</v>
+        <v>163496</v>
       </c>
       <c r="C69" t="s">
         <v>645</v>
@@ -10941,7 +10941,7 @@
         <v>44816</v>
       </c>
       <c r="B70" t="n">
-        <v>132697</v>
+        <v>163497</v>
       </c>
       <c r="C70" t="s">
         <v>652</v>
@@ -11008,7 +11008,7 @@
         <v>44816</v>
       </c>
       <c r="B71" t="n">
-        <v>132698</v>
+        <v>163498</v>
       </c>
       <c r="C71" t="s">
         <v>659</v>
@@ -11201,7 +11201,7 @@
         <v>44816</v>
       </c>
       <c r="B74" t="n">
-        <v>132699</v>
+        <v>163499</v>
       </c>
       <c r="C74" t="s">
         <v>677</v>
@@ -11266,7 +11266,7 @@
         <v>44816</v>
       </c>
       <c r="B75" t="n">
-        <v>132700</v>
+        <v>163500</v>
       </c>
       <c r="C75" t="s">
         <v>684</v>
@@ -11333,7 +11333,7 @@
         <v>44816</v>
       </c>
       <c r="B76" t="n">
-        <v>132701</v>
+        <v>163501</v>
       </c>
       <c r="C76" t="s">
         <v>690</v>
@@ -11390,7 +11390,7 @@
         <v>44816</v>
       </c>
       <c r="B77" t="n">
-        <v>132702</v>
+        <v>163502</v>
       </c>
       <c r="C77" t="s">
         <v>696</v>
@@ -11455,7 +11455,7 @@
         <v>44816</v>
       </c>
       <c r="B78" t="n">
-        <v>132703</v>
+        <v>163503</v>
       </c>
       <c r="C78" t="s">
         <v>703</v>
@@ -11516,7 +11516,7 @@
         <v>44816</v>
       </c>
       <c r="B79" t="n">
-        <v>132704</v>
+        <v>163504</v>
       </c>
       <c r="C79" t="s">
         <v>710</v>
@@ -11581,7 +11581,7 @@
         <v>44816</v>
       </c>
       <c r="B80" t="n">
-        <v>132705</v>
+        <v>163505</v>
       </c>
       <c r="C80" t="s">
         <v>717</v>
@@ -11912,7 +11912,7 @@
         <v>44816</v>
       </c>
       <c r="B85" t="n">
-        <v>132706</v>
+        <v>163506</v>
       </c>
       <c r="C85" t="s">
         <v>759</v>
@@ -11977,7 +11977,7 @@
         <v>44816</v>
       </c>
       <c r="B86" t="n">
-        <v>132707</v>
+        <v>163507</v>
       </c>
       <c r="C86" t="s">
         <v>766</v>
@@ -12109,7 +12109,7 @@
         <v>44816</v>
       </c>
       <c r="B88" t="n">
-        <v>132708</v>
+        <v>163508</v>
       </c>
       <c r="C88" t="s">
         <v>780</v>
@@ -12174,7 +12174,7 @@
         <v>44816</v>
       </c>
       <c r="B89" t="n">
-        <v>132709</v>
+        <v>163509</v>
       </c>
       <c r="C89" t="s">
         <v>789</v>
@@ -12245,7 +12245,7 @@
         <v>44816</v>
       </c>
       <c r="B90" t="n">
-        <v>132710</v>
+        <v>163510</v>
       </c>
       <c r="C90" t="s">
         <v>799</v>
@@ -12316,7 +12316,7 @@
         <v>44816</v>
       </c>
       <c r="B91" t="n">
-        <v>132711</v>
+        <v>163511</v>
       </c>
       <c r="C91" t="s">
         <v>806</v>
@@ -12454,7 +12454,7 @@
         <v>44816</v>
       </c>
       <c r="B93" t="n">
-        <v>132712</v>
+        <v>163512</v>
       </c>
       <c r="C93" t="s">
         <v>822</v>
@@ -12590,7 +12590,7 @@
         <v>44816</v>
       </c>
       <c r="B95" t="n">
-        <v>132713</v>
+        <v>163513</v>
       </c>
       <c r="C95" t="s">
         <v>835</v>
@@ -12655,7 +12655,7 @@
         <v>44816</v>
       </c>
       <c r="B96" t="n">
-        <v>132714</v>
+        <v>163514</v>
       </c>
       <c r="C96" t="s">
         <v>845</v>
@@ -12797,7 +12797,7 @@
         <v>44816</v>
       </c>
       <c r="B98" t="n">
-        <v>132715</v>
+        <v>163515</v>
       </c>
       <c r="C98" t="s">
         <v>859</v>
@@ -12933,7 +12933,7 @@
         <v>44816</v>
       </c>
       <c r="B100" t="n">
-        <v>132716</v>
+        <v>163516</v>
       </c>
       <c r="C100" t="s">
         <v>878</v>
@@ -13144,7 +13144,7 @@
         <v>44816</v>
       </c>
       <c r="B103" t="n">
-        <v>132717</v>
+        <v>163517</v>
       </c>
       <c r="C103" t="s">
         <v>900</v>
@@ -13213,7 +13213,7 @@
         <v>44816</v>
       </c>
       <c r="B104" t="n">
-        <v>132718</v>
+        <v>163518</v>
       </c>
       <c r="C104" t="s">
         <v>908</v>
@@ -13282,7 +13282,7 @@
         <v>44816</v>
       </c>
       <c r="B105" t="n">
-        <v>132719</v>
+        <v>163519</v>
       </c>
       <c r="C105" t="s">
         <v>918</v>
@@ -13357,7 +13357,7 @@
         <v>44816</v>
       </c>
       <c r="B106" t="n">
-        <v>132720</v>
+        <v>163520</v>
       </c>
       <c r="C106" t="s">
         <v>927</v>
@@ -13578,7 +13578,7 @@
         <v>44816</v>
       </c>
       <c r="B109" t="n">
-        <v>132721</v>
+        <v>163521</v>
       </c>
       <c r="C109" t="s">
         <v>954</v>
@@ -13653,7 +13653,7 @@
         <v>44816</v>
       </c>
       <c r="B110" t="n">
-        <v>132722</v>
+        <v>163522</v>
       </c>
       <c r="C110" t="s">
         <v>961</v>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="B111" t="n">
-        <v>132723</v>
+        <v>163523</v>
       </c>
       <c r="C111" t="s">
         <v>968</v>
@@ -13789,7 +13789,7 @@
         <v>44816</v>
       </c>
       <c r="B112" t="n">
-        <v>132724</v>
+        <v>163524</v>
       </c>
       <c r="C112" t="s">
         <v>978</v>
@@ -13864,7 +13864,7 @@
         <v>44816</v>
       </c>
       <c r="B113" t="n">
-        <v>132725</v>
+        <v>163525</v>
       </c>
       <c r="C113" t="s">
         <v>985</v>
@@ -13939,7 +13939,7 @@
         <v>44816</v>
       </c>
       <c r="B114" t="n">
-        <v>132726</v>
+        <v>163526</v>
       </c>
       <c r="C114" t="s">
         <v>995</v>
@@ -14014,7 +14014,7 @@
         <v>44816</v>
       </c>
       <c r="B115" t="n">
-        <v>132727</v>
+        <v>163527</v>
       </c>
       <c r="C115" t="s">
         <v>1002</v>
@@ -14089,7 +14089,7 @@
         <v>44816</v>
       </c>
       <c r="B116" t="n">
-        <v>132728</v>
+        <v>163528</v>
       </c>
       <c r="C116" t="s">
         <v>1011</v>
@@ -14164,7 +14164,7 @@
         <v>44816</v>
       </c>
       <c r="B117" t="n">
-        <v>132729</v>
+        <v>163529</v>
       </c>
       <c r="C117" t="s">
         <v>1021</v>
@@ -14239,7 +14239,7 @@
         <v>44816</v>
       </c>
       <c r="B118" t="n">
-        <v>132730</v>
+        <v>163530</v>
       </c>
       <c r="C118" t="s">
         <v>1031</v>
@@ -14314,7 +14314,7 @@
         <v>44816</v>
       </c>
       <c r="B119" t="n">
-        <v>132731</v>
+        <v>163531</v>
       </c>
       <c r="C119" t="s">
         <v>1038</v>
@@ -14389,7 +14389,7 @@
         <v>44816</v>
       </c>
       <c r="B120" t="n">
-        <v>132732</v>
+        <v>163532</v>
       </c>
       <c r="C120" t="s">
         <v>1048</v>
@@ -14539,7 +14539,7 @@
         <v>44816</v>
       </c>
       <c r="B122" t="n">
-        <v>132733</v>
+        <v>163533</v>
       </c>
       <c r="C122" t="s">
         <v>1063</v>
@@ -14614,7 +14614,7 @@
         <v>44816</v>
       </c>
       <c r="B123" t="n">
-        <v>132734</v>
+        <v>163534</v>
       </c>
       <c r="C123" t="s">
         <v>1073</v>
@@ -14689,7 +14689,7 @@
         <v>44816</v>
       </c>
       <c r="B124" t="n">
-        <v>132735</v>
+        <v>163535</v>
       </c>
       <c r="C124" t="s">
         <v>1082</v>
@@ -14764,7 +14764,7 @@
         <v>44816</v>
       </c>
       <c r="B125" t="n">
-        <v>132736</v>
+        <v>163536</v>
       </c>
       <c r="C125" t="s">
         <v>1091</v>
@@ -14839,7 +14839,7 @@
         <v>44816</v>
       </c>
       <c r="B126" t="n">
-        <v>132737</v>
+        <v>163537</v>
       </c>
       <c r="C126" t="s">
         <v>1101</v>
@@ -14914,7 +14914,7 @@
         <v>44816</v>
       </c>
       <c r="B127" t="n">
-        <v>132738</v>
+        <v>163538</v>
       </c>
       <c r="C127" t="s">
         <v>1108</v>
@@ -14989,7 +14989,7 @@
         <v>44816</v>
       </c>
       <c r="B128" t="n">
-        <v>132739</v>
+        <v>163539</v>
       </c>
       <c r="C128" t="s">
         <v>1115</v>
@@ -15139,7 +15139,7 @@
         <v>44816</v>
       </c>
       <c r="B130" t="n">
-        <v>132740</v>
+        <v>163540</v>
       </c>
       <c r="C130" t="s">
         <v>1131</v>
@@ -15214,7 +15214,7 @@
         <v>44816</v>
       </c>
       <c r="B131" t="n">
-        <v>132741</v>
+        <v>163541</v>
       </c>
       <c r="C131" t="s">
         <v>1138</v>
@@ -15285,7 +15285,7 @@
         <v>44816</v>
       </c>
       <c r="B132" t="n">
-        <v>132742</v>
+        <v>163542</v>
       </c>
       <c r="C132" t="s">
         <v>1147</v>
@@ -15435,7 +15435,7 @@
         <v>44816</v>
       </c>
       <c r="B134" t="n">
-        <v>132743</v>
+        <v>163543</v>
       </c>
       <c r="C134" t="s">
         <v>1164</v>
@@ -15510,7 +15510,7 @@
         <v>44816</v>
       </c>
       <c r="B135" t="n">
-        <v>132744</v>
+        <v>163544</v>
       </c>
       <c r="C135" t="s">
         <v>1173</v>
@@ -15660,7 +15660,7 @@
         <v>44816</v>
       </c>
       <c r="B137" t="n">
-        <v>132745</v>
+        <v>163545</v>
       </c>
       <c r="C137" t="s">
         <v>1189</v>
@@ -15735,7 +15735,7 @@
         <v>44816</v>
       </c>
       <c r="B138" t="n">
-        <v>132746</v>
+        <v>163546</v>
       </c>
       <c r="C138" t="s">
         <v>1198</v>
@@ -15810,7 +15810,7 @@
         <v>44816</v>
       </c>
       <c r="B139" t="n">
-        <v>132747</v>
+        <v>163547</v>
       </c>
       <c r="C139" t="s">
         <v>1206</v>
@@ -15881,7 +15881,7 @@
         <v>44816</v>
       </c>
       <c r="B140" t="n">
-        <v>132748</v>
+        <v>163548</v>
       </c>
       <c r="C140" t="s">
         <v>1215</v>
@@ -15956,7 +15956,7 @@
         <v>44816</v>
       </c>
       <c r="B141" t="n">
-        <v>132749</v>
+        <v>163549</v>
       </c>
       <c r="C141" t="s">
         <v>1224</v>
@@ -16031,7 +16031,7 @@
         <v>44816</v>
       </c>
       <c r="B142" t="n">
-        <v>132750</v>
+        <v>163550</v>
       </c>
       <c r="C142" t="s">
         <v>1233</v>
@@ -16106,7 +16106,7 @@
         <v>44816</v>
       </c>
       <c r="B143" t="n">
-        <v>132751</v>
+        <v>163551</v>
       </c>
       <c r="C143" t="s">
         <v>1243</v>
@@ -16181,7 +16181,7 @@
         <v>44816</v>
       </c>
       <c r="B144" t="n">
-        <v>132752</v>
+        <v>163552</v>
       </c>
       <c r="C144" t="s">
         <v>1252</v>
@@ -16256,7 +16256,7 @@
         <v>44816</v>
       </c>
       <c r="B145" t="n">
-        <v>132753</v>
+        <v>163553</v>
       </c>
       <c r="C145" t="s">
         <v>1259</v>
@@ -16406,7 +16406,7 @@
         <v>44816</v>
       </c>
       <c r="B147" t="n">
-        <v>132754</v>
+        <v>163554</v>
       </c>
       <c r="C147" t="s">
         <v>1276</v>
@@ -16477,7 +16477,7 @@
         <v>44816</v>
       </c>
       <c r="B148" t="n">
-        <v>132755</v>
+        <v>163555</v>
       </c>
       <c r="C148" t="s">
         <v>1282</v>
@@ -16548,7 +16548,7 @@
         <v>44816</v>
       </c>
       <c r="B149" t="n">
-        <v>132756</v>
+        <v>163556</v>
       </c>
       <c r="C149" t="s">
         <v>1289</v>
@@ -16619,7 +16619,7 @@
         <v>44816</v>
       </c>
       <c r="B150" t="n">
-        <v>132757</v>
+        <v>163557</v>
       </c>
       <c r="C150" t="s">
         <v>1296</v>
@@ -16832,7 +16832,7 @@
         <v>44816</v>
       </c>
       <c r="B153" t="n">
-        <v>132758</v>
+        <v>163558</v>
       </c>
       <c r="C153" t="s">
         <v>1317</v>
@@ -16974,7 +16974,7 @@
         <v>44816</v>
       </c>
       <c r="B155" t="n">
-        <v>132759</v>
+        <v>163559</v>
       </c>
       <c r="C155" t="s">
         <v>1329</v>
@@ -17116,7 +17116,7 @@
         <v>44816</v>
       </c>
       <c r="B157" t="n">
-        <v>132760</v>
+        <v>163560</v>
       </c>
       <c r="C157" t="s">
         <v>1342</v>
@@ -17187,7 +17187,7 @@
         <v>44816</v>
       </c>
       <c r="B158" t="n">
-        <v>132761</v>
+        <v>163561</v>
       </c>
       <c r="C158" t="s">
         <v>1349</v>
@@ -17258,7 +17258,7 @@
         <v>44816</v>
       </c>
       <c r="B159" t="n">
-        <v>132762</v>
+        <v>163562</v>
       </c>
       <c r="C159" t="s">
         <v>1356</v>
@@ -17325,7 +17325,7 @@
         <v>44816</v>
       </c>
       <c r="B160" t="n">
-        <v>132763</v>
+        <v>163563</v>
       </c>
       <c r="C160" t="s">
         <v>1362</v>
@@ -17396,7 +17396,7 @@
         <v>44816</v>
       </c>
       <c r="B161" t="n">
-        <v>132764</v>
+        <v>163564</v>
       </c>
       <c r="C161" t="s">
         <v>1370</v>
@@ -17538,7 +17538,7 @@
         <v>44816</v>
       </c>
       <c r="B163" t="n">
-        <v>132765</v>
+        <v>163565</v>
       </c>
       <c r="C163" t="s">
         <v>1382</v>
@@ -17751,7 +17751,7 @@
         <v>44816</v>
       </c>
       <c r="B166" t="n">
-        <v>132766</v>
+        <v>163566</v>
       </c>
       <c r="C166" t="s">
         <v>1401</v>
@@ -17822,7 +17822,7 @@
         <v>44816</v>
       </c>
       <c r="B167" t="n">
-        <v>132767</v>
+        <v>163567</v>
       </c>
       <c r="C167" t="s">
         <v>1408</v>
@@ -17893,7 +17893,7 @@
         <v>44816</v>
       </c>
       <c r="B168" t="n">
-        <v>132768</v>
+        <v>163568</v>
       </c>
       <c r="C168" t="s">
         <v>1414</v>
@@ -17954,7 +17954,7 @@
         <v>44816</v>
       </c>
       <c r="B169" t="n">
-        <v>132769</v>
+        <v>163569</v>
       </c>
       <c r="C169" t="s">
         <v>1420</v>
@@ -18025,7 +18025,7 @@
         <v>44816</v>
       </c>
       <c r="B170" t="n">
-        <v>71963</v>
+        <v>102031</v>
       </c>
       <c r="C170" t="s">
         <v>1426</v>
@@ -18096,7 +18096,7 @@
         <v>44816</v>
       </c>
       <c r="B171" t="n">
-        <v>132770</v>
+        <v>163570</v>
       </c>
       <c r="C171" t="s">
         <v>1432</v>
@@ -18171,7 +18171,7 @@
         <v>44816</v>
       </c>
       <c r="B172" t="n">
-        <v>132771</v>
+        <v>163571</v>
       </c>
       <c r="C172" t="s">
         <v>1440</v>
@@ -18242,7 +18242,7 @@
         <v>44816</v>
       </c>
       <c r="B173" t="n">
-        <v>132772</v>
+        <v>163572</v>
       </c>
       <c r="C173" t="s">
         <v>1445</v>
@@ -18313,7 +18313,7 @@
         <v>44816</v>
       </c>
       <c r="B174" t="n">
-        <v>132773</v>
+        <v>163573</v>
       </c>
       <c r="C174" t="s">
         <v>1452</v>
@@ -18526,7 +18526,7 @@
         <v>44816</v>
       </c>
       <c r="B177" t="n">
-        <v>132774</v>
+        <v>163574</v>
       </c>
       <c r="C177" t="s">
         <v>1472</v>
@@ -18597,7 +18597,7 @@
         <v>44816</v>
       </c>
       <c r="B178" t="n">
-        <v>132775</v>
+        <v>163575</v>
       </c>
       <c r="C178" t="s">
         <v>1480</v>
@@ -18668,7 +18668,7 @@
         <v>44816</v>
       </c>
       <c r="B179" t="n">
-        <v>132776</v>
+        <v>163576</v>
       </c>
       <c r="C179" t="s">
         <v>1486</v>
@@ -18814,7 +18814,7 @@
         <v>44816</v>
       </c>
       <c r="B181" t="n">
-        <v>132777</v>
+        <v>163577</v>
       </c>
       <c r="C181" t="s">
         <v>1503</v>
@@ -18875,7 +18875,7 @@
         <v>44816</v>
       </c>
       <c r="B182" t="n">
-        <v>132778</v>
+        <v>163578</v>
       </c>
       <c r="C182" t="s">
         <v>1509</v>
@@ -18950,7 +18950,7 @@
         <v>44816</v>
       </c>
       <c r="B183" t="n">
-        <v>132779</v>
+        <v>163579</v>
       </c>
       <c r="C183" t="s">
         <v>1518</v>
@@ -19100,7 +19100,7 @@
         <v>44816</v>
       </c>
       <c r="B185" t="n">
-        <v>132780</v>
+        <v>163580</v>
       </c>
       <c r="C185" t="s">
         <v>1533</v>
@@ -19175,7 +19175,7 @@
         <v>44816</v>
       </c>
       <c r="B186" t="n">
-        <v>132781</v>
+        <v>163581</v>
       </c>
       <c r="C186" t="s">
         <v>1543</v>
@@ -19325,7 +19325,7 @@
         <v>44816</v>
       </c>
       <c r="B188" t="n">
-        <v>132782</v>
+        <v>163582</v>
       </c>
       <c r="C188" t="s">
         <v>1561</v>
@@ -19396,7 +19396,7 @@
         <v>44816</v>
       </c>
       <c r="B189" t="n">
-        <v>132783</v>
+        <v>163583</v>
       </c>
       <c r="C189" t="s">
         <v>1568</v>
@@ -19471,7 +19471,7 @@
         <v>44816</v>
       </c>
       <c r="B190" t="n">
-        <v>132784</v>
+        <v>163584</v>
       </c>
       <c r="C190" t="s">
         <v>1577</v>
@@ -19542,7 +19542,7 @@
         <v>44816</v>
       </c>
       <c r="B191" t="n">
-        <v>132785</v>
+        <v>163585</v>
       </c>
       <c r="C191" t="s">
         <v>1584</v>
@@ -19617,7 +19617,7 @@
         <v>44816</v>
       </c>
       <c r="B192" t="n">
-        <v>132786</v>
+        <v>163586</v>
       </c>
       <c r="C192" t="s">
         <v>1594</v>
@@ -19834,7 +19834,7 @@
         <v>44816</v>
       </c>
       <c r="B195" t="n">
-        <v>132787</v>
+        <v>163587</v>
       </c>
       <c r="C195" t="s">
         <v>1620</v>
@@ -19899,7 +19899,7 @@
         <v>44816</v>
       </c>
       <c r="B196" t="n">
-        <v>132788</v>
+        <v>163588</v>
       </c>
       <c r="C196" t="s">
         <v>1630</v>
@@ -19974,7 +19974,7 @@
         <v>44816</v>
       </c>
       <c r="B197" t="n">
-        <v>132789</v>
+        <v>163589</v>
       </c>
       <c r="C197" t="s">
         <v>1639</v>
@@ -20045,7 +20045,7 @@
         <v>44816</v>
       </c>
       <c r="B198" t="n">
-        <v>132790</v>
+        <v>163590</v>
       </c>
       <c r="C198" t="s">
         <v>1649</v>
@@ -20116,7 +20116,7 @@
         <v>44816</v>
       </c>
       <c r="B199" t="n">
-        <v>132791</v>
+        <v>163591</v>
       </c>
       <c r="C199" t="s">
         <v>1656</v>
@@ -20187,7 +20187,7 @@
         <v>44816</v>
       </c>
       <c r="B200" t="n">
-        <v>132792</v>
+        <v>163592</v>
       </c>
       <c r="C200" t="s">
         <v>1662</v>
@@ -20258,7 +20258,7 @@
         <v>44816</v>
       </c>
       <c r="B201" t="n">
-        <v>132793</v>
+        <v>163593</v>
       </c>
       <c r="C201" t="s">
         <v>1669</v>
@@ -20329,7 +20329,7 @@
         <v>44816</v>
       </c>
       <c r="B202" t="n">
-        <v>132794</v>
+        <v>163594</v>
       </c>
       <c r="C202" t="s">
         <v>1676</v>
@@ -20542,7 +20542,7 @@
         <v>44816</v>
       </c>
       <c r="B205" t="n">
-        <v>132795</v>
+        <v>163595</v>
       </c>
       <c r="C205" t="s">
         <v>1698</v>
@@ -20613,7 +20613,7 @@
         <v>44816</v>
       </c>
       <c r="B206" t="n">
-        <v>132796</v>
+        <v>163596</v>
       </c>
       <c r="C206" t="s">
         <v>1706</v>
@@ -20684,7 +20684,7 @@
         <v>44816</v>
       </c>
       <c r="B207" t="n">
-        <v>132797</v>
+        <v>163597</v>
       </c>
       <c r="C207" t="s">
         <v>1713</v>
@@ -20745,7 +20745,7 @@
         <v>44816</v>
       </c>
       <c r="B208" t="n">
-        <v>132798</v>
+        <v>163598</v>
       </c>
       <c r="C208" t="s">
         <v>1720</v>
@@ -20816,7 +20816,7 @@
         <v>44816</v>
       </c>
       <c r="B209" t="n">
-        <v>132799</v>
+        <v>163599</v>
       </c>
       <c r="C209" t="s">
         <v>1727</v>
@@ -20887,7 +20887,7 @@
         <v>44816</v>
       </c>
       <c r="B210" t="n">
-        <v>132800</v>
+        <v>163600</v>
       </c>
       <c r="C210" t="s">
         <v>1734</v>
@@ -21029,7 +21029,7 @@
         <v>44816</v>
       </c>
       <c r="B212" t="n">
-        <v>132801</v>
+        <v>163601</v>
       </c>
       <c r="C212" t="s">
         <v>1747</v>
@@ -21100,7 +21100,7 @@
         <v>44816</v>
       </c>
       <c r="B213" t="n">
-        <v>132802</v>
+        <v>163602</v>
       </c>
       <c r="C213" t="s">
         <v>1754</v>
@@ -21171,7 +21171,7 @@
         <v>44816</v>
       </c>
       <c r="B214" t="n">
-        <v>132803</v>
+        <v>163603</v>
       </c>
       <c r="C214" t="s">
         <v>1762</v>
@@ -21242,7 +21242,7 @@
         <v>44816</v>
       </c>
       <c r="B215" t="n">
-        <v>132804</v>
+        <v>163604</v>
       </c>
       <c r="C215" t="s">
         <v>1769</v>
@@ -21313,7 +21313,7 @@
         <v>44816</v>
       </c>
       <c r="B216" t="n">
-        <v>132805</v>
+        <v>163605</v>
       </c>
       <c r="C216" t="s">
         <v>1777</v>
@@ -21370,7 +21370,7 @@
         <v>44816</v>
       </c>
       <c r="B217" t="n">
-        <v>132806</v>
+        <v>163606</v>
       </c>
       <c r="C217" t="s">
         <v>1784</v>
@@ -21441,7 +21441,7 @@
         <v>44816</v>
       </c>
       <c r="B218" t="n">
-        <v>132807</v>
+        <v>163607</v>
       </c>
       <c r="C218" t="s">
         <v>1792</v>
@@ -21512,7 +21512,7 @@
         <v>44816</v>
       </c>
       <c r="B219" t="n">
-        <v>132808</v>
+        <v>163608</v>
       </c>
       <c r="C219" t="s">
         <v>1800</v>
@@ -21583,7 +21583,7 @@
         <v>44816</v>
       </c>
       <c r="B220" t="n">
-        <v>132809</v>
+        <v>163609</v>
       </c>
       <c r="C220" t="s">
         <v>1807</v>
@@ -21640,7 +21640,7 @@
         <v>44816</v>
       </c>
       <c r="B221" t="n">
-        <v>132810</v>
+        <v>163610</v>
       </c>
       <c r="C221" t="s">
         <v>1814</v>
@@ -21711,7 +21711,7 @@
         <v>44816</v>
       </c>
       <c r="B222" t="n">
-        <v>132811</v>
+        <v>163611</v>
       </c>
       <c r="C222" t="s">
         <v>1821</v>
@@ -21782,7 +21782,7 @@
         <v>44816</v>
       </c>
       <c r="B223" t="n">
-        <v>132812</v>
+        <v>163612</v>
       </c>
       <c r="C223" t="s">
         <v>1829</v>
@@ -21853,7 +21853,7 @@
         <v>44816</v>
       </c>
       <c r="B224" t="n">
-        <v>132813</v>
+        <v>163613</v>
       </c>
       <c r="C224" t="s">
         <v>1835</v>
@@ -21924,7 +21924,7 @@
         <v>44816</v>
       </c>
       <c r="B225" t="n">
-        <v>132814</v>
+        <v>163614</v>
       </c>
       <c r="C225" t="s">
         <v>1841</v>
@@ -22182,7 +22182,7 @@
         <v>44816</v>
       </c>
       <c r="B229" t="n">
-        <v>132815</v>
+        <v>163615</v>
       </c>
       <c r="C229" t="s">
         <v>1864</v>
